--- a/storage/templates/revised scholars profile.xlsx
+++ b/storage/templates/revised scholars profile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\oxytoxin\Sites\scholarstracker\storage\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F674CF63-AAD8-4518-83C3-2E7F58F2DA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846CEDBF-3BDE-4BD7-B06E-743D105CAEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" xr2:uid="{7AF9A363-C548-420C-97B1-5571B93661A7}"/>
   </bookViews>
@@ -210,12 +210,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -229,6 +223,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -252,82 +252,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>777577</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>173181</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>334818</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1893458</xdr:colOff>
+      <xdr:colOff>1491885</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>122475</xdr:rowOff>
+      <xdr:rowOff>290299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5FE77C3-D10C-25F8-3948-70143CD3AAF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="70828"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9136486" y="1281545"/>
-          <a:ext cx="7673699" cy="318748"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2799637</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>112836</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>909829</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>210888</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D7A08FD-C003-83AB-E027-F36C7667ED40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46F2E755-E16F-25EC-BB75-3CF2260D1DB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -335,79 +276,19 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="2939" b="-1"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5764795" y="112836"/>
-          <a:ext cx="3046410" cy="1610150"/>
+          <a:off x="6615545" y="242455"/>
+          <a:ext cx="9793067" cy="1525662"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1086345</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>35586</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>166250</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>150091</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF0C2E78-2758-1728-9DF1-359A3CBF20DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="27907"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9445254" y="35586"/>
-          <a:ext cx="8997451" cy="1222869"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -715,7 +596,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:R10"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -742,213 +623,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:19" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="34.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:19" ht="93.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -1009,28 +890,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="120.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
-        <v>1</v>
-      </c>
+    <row r="12" spans="1:19" s="10" customFormat="1" ht="120.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
